--- a/2025-09-13/HR.xlsx
+++ b/2025-09-13/HR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Google data certificate + case studies\EDA lesson\EDA practices\Rstudio Practice\2025-09-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF1585-4557-46D4-BFC4-CC05F992CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922507E-49B6-4053-A631-AAD1347A9708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDA comparing performance score" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Appendix!$O$47:$O$59</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Appendix!$P$47:$P$59</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Appendix!$I$47:$I$289</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Appendix!$J$47:$J$289</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Appendix!$F$47:$F$83</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Appendix!$G$47:$G$83</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Appendix!$L$47:$L$64</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Appendix!$M$47:$M$64</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Appendix!$L$47:$L$64</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Appendix!$M$47:$M$64</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Appendix!$I$47:$I$289</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Appendix!$J$47:$J$289</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Appendix!$F$47:$F$83</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Appendix!$G$47:$G$83</definedName>
     <definedName name="actual">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Appendix!$B$10:$C$321</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Statistical Model'!$A$9:$D$320</definedName>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="118">
   <si>
     <t>PerformanceScore</t>
   </si>
@@ -694,9 +694,6 @@
     <t>Precision</t>
   </si>
   <si>
-    <t>Recall</t>
-  </si>
-  <si>
     <t>TP Rate</t>
   </si>
   <si>
@@ -705,13 +702,107 @@
   <si>
     <t>Performance Score (1 = Poor Performance)</t>
   </si>
+  <si>
+    <t>what percentage of our predicted model accurately match with actual result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; </t>
+  </si>
+  <si>
+    <t>CONFUSION MATRIX</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Recall/Sensitivity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">what percentage of our model accurately predicted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>positive outcome (y = 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  compared to the actual result?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">what percentage of the actual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>positive outcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is accurately encapsulated by our model?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(How well did our model capture </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">actual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>positive outcome)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -866,11 +957,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -887,10 +979,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -2746,10 +2840,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2810,10 +2904,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2874,10 +2968,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -20158,856 +20252,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C15EA5D-63D6-4FB7-9FD1-3D45AC5C3F76}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B63:C68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="33">
-        <item x="10"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="30"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="3">
-        <item n="Male" x="0"/>
-        <item n="Female" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="19">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of EngagementSurvey" fld="24" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39CB0352-D678-4E03-9967-6ABD34299ED2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B8:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="% of PerformanceScore" fld="3" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D79B3932-D2EA-4CE2-AB0F-484D3F162B41}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B28:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="33">
-        <item x="10"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="30"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="3">
-        <item n="Male" x="0"/>
-        <item n="Female" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="19">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="14"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="9">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="2" selected="0">
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="14" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="10">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="14" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="11">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="14" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6078FAE4-58D5-4E44-850A-3409EAF797D9}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B49:F57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="33">
-        <item x="10"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="30"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="3">
-        <item n="Male" x="0"/>
-        <item n="Female" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="19">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="7">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="20"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="12">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="2" selected="0">
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="13">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="14">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC6F0180-D54F-48DE-8D6D-4CCA337465AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B17:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
@@ -21210,7 +20454,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A06E586F-AA5D-40DB-8861-8E10DFC14E7A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="K8:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
@@ -21583,7 +20827,1036 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C15EA5D-63D6-4FB7-9FD1-3D45AC5C3F76}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B63:C68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="33">
+        <item x="10"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item n="Male" x="0"/>
+        <item n="Female" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="19">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of EngagementSurvey" fld="24" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39CB0352-D678-4E03-9967-6ABD34299ED2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B8:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% of PerformanceScore" fld="3" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D79B3932-D2EA-4CE2-AB0F-484D3F162B41}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B28:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="33">
+        <item x="10"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item n="Male" x="0"/>
+        <item n="Female" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="19">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="14"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="2" selected="0">
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="14" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="10">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="14" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="11">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="14" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6078FAE4-58D5-4E44-850A-3409EAF797D9}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B49:F57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="33">
+        <item x="10"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item n="Male" x="0"/>
+        <item n="Female" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="19">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="20"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="12">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="2" selected="0">
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="13">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="14">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85F01519-D835-46AA-8D6E-95BD284E35D6}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B29:F33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name="Reason for Termination" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="18">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="19"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="19" count="2" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="19" count="2" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="2" selected="0">
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="19" count="2" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D9B3C61-7ADA-461A-B3ED-976C2D27D64D}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B6:F25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
@@ -21828,185 +22101,6 @@
               <x v="14"/>
               <x v="15"/>
               <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85F01519-D835-46AA-8D6E-95BD284E35D6}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B29:F33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField name="Reason for Termination" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="18">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="19"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="19" count="2" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="19" count="2" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="2" selected="0">
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="19" count="2" selected="0">
-              <x v="0"/>
-              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -23308,8 +23402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1C546-D924-47A9-84B0-FE3BDE83BEFC}">
   <dimension ref="A1:R320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23324,7 +23418,8 @@
     <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="13" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="98.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="14.140625" customWidth="1"/>
   </cols>
@@ -23355,11 +23450,8 @@
         <f>SUM(J10:J320)</f>
         <v>-20.022805498439418</v>
       </c>
-      <c r="P1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>102</v>
+      <c r="N1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -23375,31 +23467,19 @@
       <c r="D2" s="10">
         <v>-7.8269647879355177E-3</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O3,predicted,P$2)</f>
-        <v>278</v>
-      </c>
-      <c r="Q3" s="12">
-        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O3,predicted,Q$2)</f>
-        <v>2</v>
-      </c>
-      <c r="R3" s="13">
-        <f>SUM(P3:Q3)</f>
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -23407,19 +23487,19 @@
         <v>103</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12">
-        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O4,predicted,P$2)</f>
-        <v>10</v>
+        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O4,predicted,P$3)</f>
+        <v>278</v>
       </c>
       <c r="Q4" s="12">
-        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O4,predicted,Q$2)</f>
-        <v>21</v>
+        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O4,predicted,Q$3)</f>
+        <v>2</v>
       </c>
       <c r="R4" s="13">
         <f>SUM(P4:Q4)</f>
-        <v>31</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -23427,33 +23507,58 @@
         <f>EXP(A2)/(EXP(A2)+1)</f>
         <v>0.99996810494195298</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12">
+        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O5,predicted,P$3)</f>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>COUNTIFS(Truncated_Employee_Performance_Score__for_Data_Model[PerformanceScore],$O5,predicted,Q$3)</f>
+        <v>21</v>
+      </c>
+      <c r="R5" s="13">
+        <f>SUM(P5:Q5)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="13">
-        <f>SUM(P3:P4)</f>
+      <c r="P6" s="13">
+        <f>SUM(P4:P5)</f>
         <v>288</v>
       </c>
-      <c r="Q5" s="13">
-        <f>SUM(Q3:Q4)</f>
+      <c r="Q6" s="13">
+        <f>SUM(Q4:Q5)</f>
         <v>23</v>
       </c>
-      <c r="R5" s="14">
-        <f>SUM(R3:R4)</f>
+      <c r="R6" s="14">
+        <f>SUM(R4:R5)</f>
         <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
         <v>110</v>
       </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>(P4+Q5)/R6</f>
+        <v>0.96141479099678462</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -23487,8 +23592,18 @@
       <c r="K9" t="s">
         <v>102</v>
       </c>
+      <c r="M9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>Q5/Q6</f>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -23528,8 +23643,18 @@
         <f>IF(H10&gt;$I$1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="M10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="Q10" s="16">
+        <f>Q5/R5</f>
+        <v>0.67741935483870963</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -23569,8 +23694,11 @@
         <f t="shared" ref="K11:K74" si="3">IF(H11&gt;$I$1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -23609,6 +23737,9 @@
       <c r="K12">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">

--- a/2025-09-13/HR.xlsx
+++ b/2025-09-13/HR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXMINSUNG\Desktop\2025-09-13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Google data certificate + case studies\EDA lesson\EDA practices\Rstudio Practice\2025-09-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F4DDA-AE54-40CA-B52D-8EEAEAF28AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FBCDC5-27B1-4F68-AE36-E3332DA21CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDA comparing performance score" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="EDA comparing terminatn chance" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Appendix!$I$47:$I$289</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Appendix!$J$47:$J$289</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Appendix!$L$47:$L$64</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Appendix!$M$47:$M$64</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Appendix!$F$47:$F$83</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Appendix!$G$47:$G$83</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Appendix!$O$47:$O$59</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Appendix!$P$47:$P$59</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Appendix!$O$47:$O$59</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Appendix!$P$47:$P$59</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Appendix!$F$47:$F$83</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Appendix!$G$47:$G$83</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Appendix!$I$47:$I$289</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Appendix!$J$47:$J$289</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Appendix!$L$47:$L$64</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Appendix!$M$47:$M$64</definedName>
     <definedName name="actual">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Appendix!$B$10:$C$321</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Statistical Model'!$A$9:$D$319</definedName>
@@ -1174,7 +1174,7 @@
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1182,6 +1182,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <font>
@@ -1206,12 +1212,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <font>
@@ -1274,7 +1274,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3034,7 +3034,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3765,7 +3765,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4239,10 +4239,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4303,10 +4303,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4367,10 +4367,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4431,10 +4431,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8506,8 +8506,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="609599" y="1447800"/>
-              <a:ext cx="5310188" cy="2714625"/>
+              <a:off x="609599" y="1524000"/>
+              <a:ext cx="4981575" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8527,7 +8527,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -8584,8 +8584,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6605588" y="1447800"/>
-              <a:ext cx="5181600" cy="2714625"/>
+              <a:off x="6200775" y="1524000"/>
+              <a:ext cx="4876800" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8605,7 +8605,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -8662,8 +8662,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="609599" y="4343400"/>
-              <a:ext cx="5310188" cy="2714625"/>
+              <a:off x="609599" y="4572000"/>
+              <a:ext cx="4981575" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8683,7 +8683,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -8740,8 +8740,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6605588" y="4343400"/>
-              <a:ext cx="5181600" cy="2714625"/>
+              <a:off x="6200775" y="4572000"/>
+              <a:ext cx="4876800" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8761,7 +8761,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -22840,582 +22840,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC6F0180-D54F-48DE-8D6D-4CCA337465AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B17:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="33">
-        <item x="10"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="30"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="3">
-        <item n="Male" x="0"/>
-        <item n="Female" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="19">
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="21">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="10" count="2" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A06E586F-AA5D-40DB-8861-8E10DFC14E7A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
-  <location ref="K8:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="30">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField name="Employee Satisfaction Level" axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="6">
-        <item n="Very Dissatisfied" x="4"/>
-        <item n="Dissatisfied" x="3"/>
-        <item n="Neutral" x="1"/>
-        <item n="Satisfied" x="2"/>
-        <item n="Very Satisfied" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="25"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="% of Performance Score" fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="4">
-    <conditionalFormat type="all" priority="26">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="25" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="27">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="25" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="28">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="25" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="29">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-            <reference field="25" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="12">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="25" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C15EA5D-63D6-4FB7-9FD1-3D45AC5C3F76}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B63:C68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
@@ -23623,7 +23047,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39CB0352-D678-4E03-9967-6ABD34299ED2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B8:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
@@ -23704,7 +23128,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B31CE6F6-5757-48C1-872C-4458727C8CCF}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K39:L44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
@@ -23882,7 +23306,7 @@
     <dataField name="Average of Absences" fld="29" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" selected="0">
@@ -23891,7 +23315,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -23932,7 +23356,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6078FAE4-58D5-4E44-850A-3409EAF797D9}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B49:F57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="30">
@@ -24142,16 +23566,12 @@
     <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="15">
+    <conditionalFormat priority="17">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="3" count="2" selected="0">
-              <x v="2"/>
-              <x v="3"/>
             </reference>
             <reference field="20" count="6" selected="0">
               <x v="0"/>
@@ -24187,12 +23607,16 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="17">
+    <conditionalFormat priority="15">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="3" count="2" selected="0">
+              <x v="2"/>
+              <x v="3"/>
             </reference>
             <reference field="20" count="6" selected="0">
               <x v="0"/>
@@ -24207,6 +23631,582 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC6F0180-D54F-48DE-8D6D-4CCA337465AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B17:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="33">
+        <item x="10"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="3">
+        <item n="Male" x="0"/>
+        <item n="Female" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="19">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="21">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="10" count="2" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A06E586F-AA5D-40DB-8861-8E10DFC14E7A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="K8:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name="Employee Satisfaction Level" axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item n="Very Dissatisfied" x="4"/>
+        <item n="Dissatisfied" x="3"/>
+        <item n="Neutral" x="1"/>
+        <item n="Satisfied" x="2"/>
+        <item n="Very Satisfied" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="25"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% of Performance Score" fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="4">
+    <conditionalFormat type="all" priority="29">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="25" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="28">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="25" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="27">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="25" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="26">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+            <reference field="25" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="25" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -24410,14 +24410,16 @@
     <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="12">
+    <conditionalFormat priority="14">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="3" count="2" selected="0">
+            <reference field="3" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
               <x v="2"/>
               <x v="3"/>
             </reference>
@@ -24455,16 +24457,14 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="14">
+    <conditionalFormat priority="12">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="3" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
+            <reference field="3" count="2" selected="0">
               <x v="2"/>
               <x v="3"/>
             </reference>
@@ -24607,12 +24607,16 @@
     <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="3" count="2" selected="0">
+              <x v="2"/>
+              <x v="3"/>
             </reference>
             <reference field="19" count="2" selected="0">
               <x v="0"/>
@@ -24640,16 +24644,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="3" count="2" selected="0">
-              <x v="2"/>
-              <x v="3"/>
             </reference>
             <reference field="19" count="2" selected="0">
               <x v="0"/>
@@ -24825,12 +24825,16 @@
     <dataField name=" " fld="3" subtotal="count" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="6">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="3" count="2" selected="0">
+              <x v="2"/>
+              <x v="3"/>
             </reference>
             <reference field="18" count="17" selected="0">
               <x v="0"/>
@@ -24888,16 +24892,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="6">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="3" count="2" selected="0">
-              <x v="2"/>
-              <x v="3"/>
             </reference>
             <reference field="18" count="17" selected="0">
               <x v="0"/>
@@ -25248,25 +25248,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.3984375" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1328125" customWidth="1"/>
-    <col min="8" max="10" width="17.1328125" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="14" width="17.1328125" customWidth="1"/>
+    <col min="13" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -25274,21 +25274,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -25302,7 +25302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -25403,7 +25403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -25461,7 +25461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -25496,7 +25496,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1.3</v>
       </c>
@@ -25510,7 +25510,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -25518,7 +25518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>0.11897106109324759</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>0.7813504823151125</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>5.7877813504823149E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>4.1800643086816719E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -25602,17 +25602,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1.4</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>0.11897106109324759</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>0.7813504823151125</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>5.7877813504823149E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>4.1800643086816719E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -25790,20 +25790,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1.5</v>
       </c>
@@ -25814,7 +25814,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="str" cm="1">
         <f t="array" ref="B39:C43">_xlfn.GROUPBY(Employee_Performance_Score_and_Absence[[#All],[PerformanceScore]],Employee_Performance_Score_and_Absence[[#All],[Absences]],_xleta.MODE,3,0,,,)</f>
         <v>PerformanceScore</v>
@@ -25829,7 +25829,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="str">
         <v>Exceeds</v>
       </c>
@@ -25843,7 +25843,7 @@
         <v>10.486486486486486</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="str">
         <v>Fully Meets</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>10.222222222222221</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="str">
         <v>Needs Improvement</v>
       </c>
@@ -25871,7 +25871,7 @@
         <v>11.333333333333334</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="str">
         <v>PIP</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>8.3076923076923084</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -25896,17 +25896,17 @@
         <v>10.237942122186496</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1.6</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
@@ -25939,7 +25939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>52</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>3.8277511961722487E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>53</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>0.12903225806451613</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>54</v>
       </c>
@@ -25990,7 +25990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -26007,7 +26007,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>56</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>55</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>5</v>
       </c>
@@ -26058,27 +26058,27 @@
         <v>4.1800643086816719E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.7</v>
       </c>
@@ -26089,7 +26089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>4.4786486486486492</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>2</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>4.237901234567901</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>2.9911111111111111</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>4</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>2.2192307692307689</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -26129,17 +26129,17 @@
         <v>4.1099999999999994</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>99</v>
       </c>
@@ -26270,30 +26270,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1C546-D924-47A9-84B0-FE3BDE83BEFC}">
   <dimension ref="A1:AA319"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AA12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="36.73046875" customWidth="1"/>
-    <col min="9" max="9" width="37.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" customWidth="1"/>
-    <col min="13" max="13" width="98.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="14.1328125" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>12.051857161940729</v>
       </c>
@@ -26388,7 +26388,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P3">
         <v>0</v>
       </c>
@@ -26420,7 +26420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>85</v>
       </c>
@@ -26474,7 +26474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <f>A2</f>
         <v>12.051857161940729</v>
@@ -26529,7 +26529,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>124</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="T7" s="22">
         <v>0.4</v>
       </c>
@@ -26599,7 +26599,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -26779,7 +26779,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -26954,7 +26954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -27068,7 +27068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -27144,7 +27144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -27182,7 +27182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -27220,7 +27220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -27562,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -27714,7 +27714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -27790,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -28018,7 +28018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -28094,7 +28094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -28170,7 +28170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -28322,7 +28322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -28398,7 +28398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -28664,7 +28664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -28854,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -28930,7 +28930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -29234,7 +29234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -29348,7 +29348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -29386,7 +29386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -29462,7 +29462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -29500,7 +29500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -29538,7 +29538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -29652,7 +29652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -29690,7 +29690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -29728,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -29842,7 +29842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -29918,7 +29918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -29994,7 +29994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -30070,7 +30070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -30184,7 +30184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -30260,7 +30260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -30374,7 +30374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -30412,7 +30412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -30488,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -30564,7 +30564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
@@ -30640,7 +30640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -30906,7 +30906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -31020,7 +31020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -31096,7 +31096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -31134,7 +31134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -31172,7 +31172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -31210,7 +31210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -31248,7 +31248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -31362,7 +31362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -31514,7 +31514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -31666,7 +31666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -31704,7 +31704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0</v>
       </c>
@@ -31894,7 +31894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -31932,7 +31932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0</v>
       </c>
@@ -31970,7 +31970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -32008,7 +32008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -32046,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -32122,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -32274,7 +32274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -32350,7 +32350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -32388,7 +32388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0</v>
       </c>
@@ -32464,7 +32464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0</v>
       </c>
@@ -32502,7 +32502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0</v>
       </c>
@@ -32578,7 +32578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
@@ -32654,7 +32654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -32692,7 +32692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -32730,7 +32730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -32768,7 +32768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -32806,7 +32806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -32844,7 +32844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -32882,7 +32882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -32920,7 +32920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -32958,7 +32958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0</v>
       </c>
@@ -32996,7 +32996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -33110,7 +33110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0</v>
       </c>
@@ -33148,7 +33148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -33186,7 +33186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -33224,7 +33224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -33300,7 +33300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -33338,7 +33338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -33376,7 +33376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -33414,7 +33414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -33566,7 +33566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0</v>
       </c>
@@ -33604,7 +33604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -33718,7 +33718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -33756,7 +33756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -33870,7 +33870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -33946,7 +33946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0</v>
       </c>
@@ -33984,7 +33984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -34022,7 +34022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -34060,7 +34060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -34136,7 +34136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -34174,7 +34174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0</v>
       </c>
@@ -34212,7 +34212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -34250,7 +34250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -34288,7 +34288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0</v>
       </c>
@@ -34326,7 +34326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0</v>
       </c>
@@ -34364,7 +34364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>0</v>
       </c>
@@ -34402,7 +34402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0</v>
       </c>
@@ -34440,7 +34440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>0</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -34554,7 +34554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -34592,7 +34592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -34668,7 +34668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -34744,7 +34744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -34782,7 +34782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -34896,7 +34896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -34934,7 +34934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -34972,7 +34972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>0</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0</v>
       </c>
@@ -35048,7 +35048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0</v>
       </c>
@@ -35086,7 +35086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0</v>
       </c>
@@ -35124,7 +35124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -35162,7 +35162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -35276,7 +35276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0</v>
       </c>
@@ -35314,7 +35314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>0</v>
       </c>
@@ -35352,7 +35352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0</v>
       </c>
@@ -35390,7 +35390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0</v>
       </c>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0</v>
       </c>
@@ -35466,7 +35466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0</v>
       </c>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -35542,7 +35542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -35580,7 +35580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
@@ -35618,7 +35618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0</v>
       </c>
@@ -35694,7 +35694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0</v>
       </c>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0</v>
       </c>
@@ -35846,7 +35846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0</v>
       </c>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0</v>
       </c>
@@ -35922,7 +35922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0</v>
       </c>
@@ -35998,7 +35998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0</v>
       </c>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0</v>
       </c>
@@ -36074,7 +36074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -36112,7 +36112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -36150,7 +36150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0</v>
       </c>
@@ -36188,7 +36188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>0</v>
       </c>
@@ -36226,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0</v>
       </c>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>0</v>
       </c>
@@ -36340,7 +36340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>0</v>
       </c>
@@ -36416,7 +36416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0</v>
       </c>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0</v>
       </c>
@@ -36492,7 +36492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0</v>
       </c>
@@ -36530,7 +36530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0</v>
       </c>
@@ -36568,7 +36568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -36606,7 +36606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0</v>
       </c>
@@ -36644,7 +36644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0</v>
       </c>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -36720,7 +36720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0</v>
       </c>
@@ -36758,7 +36758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -36796,7 +36796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>0</v>
       </c>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0</v>
       </c>
@@ -36872,7 +36872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0</v>
       </c>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -36948,7 +36948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0</v>
       </c>
@@ -37024,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0</v>
       </c>
@@ -37062,7 +37062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0</v>
       </c>
@@ -37100,7 +37100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0</v>
       </c>
@@ -37138,7 +37138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -37176,7 +37176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0</v>
       </c>
@@ -37214,7 +37214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>0</v>
       </c>
@@ -37252,7 +37252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0</v>
       </c>
@@ -37290,7 +37290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0</v>
       </c>
@@ -37328,7 +37328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>0</v>
       </c>
@@ -37366,7 +37366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0</v>
       </c>
@@ -37404,7 +37404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0</v>
       </c>
@@ -37442,7 +37442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0</v>
       </c>
@@ -37518,7 +37518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0</v>
       </c>
@@ -37594,7 +37594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0</v>
       </c>
@@ -37632,7 +37632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0</v>
       </c>
@@ -37670,7 +37670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0</v>
       </c>
@@ -37708,7 +37708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0</v>
       </c>
@@ -37746,7 +37746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0</v>
       </c>
@@ -37822,7 +37822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0</v>
       </c>
@@ -37860,7 +37860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>0</v>
       </c>
@@ -37898,7 +37898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0</v>
       </c>
@@ -37936,7 +37936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0</v>
       </c>
@@ -37974,7 +37974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0</v>
       </c>
@@ -38012,7 +38012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>0</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -38088,7 +38088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0</v>
       </c>
@@ -38126,7 +38126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>0</v>
       </c>
@@ -38164,7 +38164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>0</v>
       </c>
@@ -38240,7 +38240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>0</v>
       </c>
@@ -38316,7 +38316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>0</v>
       </c>
@@ -38354,7 +38354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -38392,7 +38392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0</v>
       </c>
@@ -38430,7 +38430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -38468,7 +38468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>0</v>
       </c>
@@ -38506,7 +38506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>0</v>
       </c>
@@ -38544,7 +38544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>0</v>
       </c>
@@ -38600,20 +38600,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.86328125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F2" s="4" t="str" cm="1">
         <f t="array" ref="F2:G6">_xlfn.GROUPBY(Employee_Performance_Score_and_Absence[[#All],[PerformanceScore]],Employee_Performance_Score_and_Absence[[#All],[Absences]],_xleta.MODE,3,0,,,)</f>
         <v>PerformanceScore</v>
@@ -38622,7 +38622,7 @@
         <v>Absences</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F3" t="str">
         <v>Exceeds</v>
       </c>
@@ -38630,7 +38630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4" t="str">
         <v>Fully Meets</v>
       </c>
@@ -38638,7 +38638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F5" t="str">
         <v>Needs Improvement</v>
       </c>
@@ -38646,7 +38646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F6" t="str">
         <v>PIP</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -38662,7 +38662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -38670,7 +38670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -38678,7 +38678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -38686,7 +38686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -38694,7 +38694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -38702,7 +38702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -38710,7 +38710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -38718,7 +38718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -38726,7 +38726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -38742,7 +38742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -38750,7 +38750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -38758,7 +38758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -38766,7 +38766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -38774,7 +38774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -38782,7 +38782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -38790,7 +38790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -38798,7 +38798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -38806,7 +38806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -38814,7 +38814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -38822,7 +38822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -38830,7 +38830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -38838,7 +38838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -38846,7 +38846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -38854,7 +38854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>2</v>
       </c>
@@ -38862,7 +38862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>2</v>
       </c>
@@ -38870,7 +38870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>2</v>
       </c>
@@ -38878,7 +38878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -38886,7 +38886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>2</v>
       </c>
@@ -38894,7 +38894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>2</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -38910,7 +38910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -38918,7 +38918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>2</v>
       </c>
@@ -38926,7 +38926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>2</v>
       </c>
@@ -38934,7 +38934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -38942,7 +38942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>2</v>
       </c>
@@ -38950,7 +38950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>1</v>
       </c>
@@ -38986,7 +38986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>2</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>2</v>
       </c>
@@ -39050,7 +39050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>2</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>2</v>
       </c>
@@ -39114,7 +39114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>2</v>
       </c>
@@ -39146,7 +39146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>2</v>
       </c>
@@ -39178,7 +39178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>2</v>
       </c>
@@ -39210,7 +39210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>2</v>
       </c>
@@ -39242,7 +39242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>2</v>
       </c>
@@ -39274,7 +39274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>2</v>
       </c>
@@ -39306,7 +39306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>2</v>
       </c>
@@ -39338,7 +39338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>2</v>
       </c>
@@ -39370,7 +39370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>2</v>
       </c>
@@ -39396,7 +39396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>2</v>
       </c>
@@ -39422,7 +39422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1</v>
       </c>
@@ -39448,7 +39448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>2</v>
       </c>
@@ -39474,7 +39474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -39500,7 +39500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -39520,7 +39520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>1</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>2</v>
       </c>
@@ -39560,7 +39560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>2</v>
       </c>
@@ -39580,7 +39580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>2</v>
       </c>
@@ -39600,7 +39600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>2</v>
       </c>
@@ -39620,7 +39620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>2</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>2</v>
       </c>
@@ -39660,7 +39660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>2</v>
       </c>
@@ -39680,7 +39680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>2</v>
       </c>
@@ -39700,7 +39700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>2</v>
       </c>
@@ -39720,7 +39720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>2</v>
       </c>
@@ -39740,7 +39740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>2</v>
       </c>
@@ -39760,7 +39760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>4</v>
       </c>
@@ -39780,7 +39780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>2</v>
       </c>
@@ -39800,7 +39800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>4</v>
       </c>
@@ -39820,7 +39820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>2</v>
       </c>
@@ -39840,7 +39840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>2</v>
       </c>
@@ -39860,7 +39860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -39880,7 +39880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>3</v>
       </c>
@@ -39894,7 +39894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>2</v>
       </c>
@@ -39908,7 +39908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>2</v>
       </c>
@@ -39922,7 +39922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -39936,7 +39936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1</v>
       </c>
@@ -39950,7 +39950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>2</v>
       </c>
@@ -39964,7 +39964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>2</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>2</v>
       </c>
@@ -39992,7 +39992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>2</v>
       </c>
@@ -40006,7 +40006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>2</v>
       </c>
@@ -40020,7 +40020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>4</v>
       </c>
@@ -40034,7 +40034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>3</v>
       </c>
@@ -40048,7 +40048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>3</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>3</v>
       </c>
@@ -40076,7 +40076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>2</v>
       </c>
@@ -40090,7 +40090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>2</v>
       </c>
@@ -40104,7 +40104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>2</v>
       </c>
@@ -40118,7 +40118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>4</v>
       </c>
@@ -40132,7 +40132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>4</v>
       </c>
@@ -40146,7 +40146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>2</v>
       </c>
@@ -40160,7 +40160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>2</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>2</v>
       </c>
@@ -40188,7 +40188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>4</v>
       </c>
@@ -40202,7 +40202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>1</v>
       </c>
@@ -40216,7 +40216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>2</v>
       </c>
@@ -40230,7 +40230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>2</v>
       </c>
@@ -40244,7 +40244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>2</v>
       </c>
@@ -40258,7 +40258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>2</v>
       </c>
@@ -40272,7 +40272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>2</v>
       </c>
@@ -40286,7 +40286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>2</v>
       </c>
@@ -40300,7 +40300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>2</v>
       </c>
@@ -40314,7 +40314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>2</v>
       </c>
@@ -40328,7 +40328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>3</v>
       </c>
@@ -40342,7 +40342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -40356,7 +40356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>2</v>
       </c>
@@ -40370,7 +40370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>2</v>
       </c>
@@ -40384,7 +40384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>2</v>
       </c>
@@ -40398,7 +40398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>2</v>
       </c>
@@ -40412,7 +40412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>1</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>4</v>
       </c>
@@ -40440,7 +40440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>2</v>
       </c>
@@ -40454,7 +40454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>2</v>
       </c>
@@ -40468,7 +40468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>2</v>
       </c>
@@ -40482,7 +40482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>2</v>
       </c>
@@ -40496,7 +40496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>2</v>
       </c>
@@ -40510,7 +40510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>2</v>
       </c>
@@ -40524,7 +40524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>2</v>
       </c>
@@ -40538,7 +40538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>2</v>
       </c>
@@ -40552,7 +40552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>2</v>
       </c>
@@ -40566,7 +40566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>2</v>
       </c>
@@ -40580,7 +40580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>2</v>
       </c>
@@ -40594,7 +40594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>2</v>
       </c>
@@ -40608,7 +40608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1</v>
       </c>
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>2</v>
       </c>
@@ -40636,7 +40636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>2</v>
       </c>
@@ -40650,7 +40650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>2</v>
       </c>
@@ -40664,7 +40664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>2</v>
       </c>
@@ -40678,7 +40678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>2</v>
       </c>
@@ -40692,7 +40692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>2</v>
       </c>
@@ -40706,7 +40706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>2</v>
       </c>
@@ -40720,7 +40720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>2</v>
       </c>
@@ -40734,7 +40734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>2</v>
       </c>
@@ -40748,7 +40748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>2</v>
       </c>
@@ -40762,7 +40762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>2</v>
       </c>
@@ -40776,7 +40776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -40790,7 +40790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>2</v>
       </c>
@@ -40804,7 +40804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>2</v>
       </c>
@@ -40818,7 +40818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>2</v>
       </c>
@@ -40832,7 +40832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>2</v>
       </c>
@@ -40860,7 +40860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -40874,7 +40874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>2</v>
       </c>
@@ -40888,7 +40888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>1</v>
       </c>
@@ -40902,7 +40902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>2</v>
       </c>
@@ -40916,7 +40916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>2</v>
       </c>
@@ -40930,7 +40930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>2</v>
       </c>
@@ -40944,7 +40944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>2</v>
       </c>
@@ -40958,7 +40958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>2</v>
       </c>
@@ -40972,7 +40972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>2</v>
       </c>
@@ -40986,7 +40986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>2</v>
       </c>
@@ -41000,7 +41000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>2</v>
       </c>
@@ -41014,7 +41014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>2</v>
       </c>
@@ -41028,7 +41028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>2</v>
       </c>
@@ -41042,7 +41042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>2</v>
       </c>
@@ -41056,7 +41056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>2</v>
       </c>
@@ -41070,7 +41070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>2</v>
       </c>
@@ -41084,7 +41084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>2</v>
       </c>
@@ -41098,7 +41098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>2</v>
       </c>
@@ -41112,7 +41112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>2</v>
       </c>
@@ -41126,7 +41126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>2</v>
       </c>
@@ -41140,7 +41140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>2</v>
       </c>
@@ -41154,7 +41154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>2</v>
       </c>
@@ -41168,7 +41168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>2</v>
       </c>
@@ -41182,7 +41182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>2</v>
       </c>
@@ -41196,7 +41196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -41210,7 +41210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>2</v>
       </c>
@@ -41224,7 +41224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>2</v>
       </c>
@@ -41238,7 +41238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>1</v>
       </c>
@@ -41252,7 +41252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>2</v>
       </c>
@@ -41266,7 +41266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>1</v>
       </c>
@@ -41280,7 +41280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>2</v>
       </c>
@@ -41294,7 +41294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>1</v>
       </c>
@@ -41308,7 +41308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>2</v>
       </c>
@@ -41322,7 +41322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>2</v>
       </c>
@@ -41336,7 +41336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>2</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>2</v>
       </c>
@@ -41364,7 +41364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>2</v>
       </c>
@@ -41378,7 +41378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>2</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>2</v>
       </c>
@@ -41406,7 +41406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>2</v>
       </c>
@@ -41420,7 +41420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>2</v>
       </c>
@@ -41434,7 +41434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>2</v>
       </c>
@@ -41448,7 +41448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>2</v>
       </c>
@@ -41462,7 +41462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>2</v>
       </c>
@@ -41476,7 +41476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>2</v>
       </c>
@@ -41490,7 +41490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -41504,7 +41504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>2</v>
       </c>
@@ -41518,7 +41518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -41532,7 +41532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -41546,7 +41546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>2</v>
       </c>
@@ -41560,7 +41560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>2</v>
       </c>
@@ -41574,7 +41574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>2</v>
       </c>
@@ -41588,7 +41588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>2</v>
       </c>
@@ -41602,7 +41602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>2</v>
       </c>
@@ -41616,7 +41616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>2</v>
       </c>
@@ -41630,7 +41630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>2</v>
       </c>
@@ -41644,7 +41644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>2</v>
       </c>
@@ -41658,7 +41658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>2</v>
       </c>
@@ -41672,7 +41672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>1</v>
       </c>
@@ -41686,7 +41686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>2</v>
       </c>
@@ -41700,7 +41700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>2</v>
       </c>
@@ -41714,7 +41714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>2</v>
       </c>
@@ -41728,7 +41728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>4</v>
       </c>
@@ -41742,7 +41742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>2</v>
       </c>
@@ -41756,7 +41756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>2</v>
       </c>
@@ -41770,7 +41770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>1</v>
       </c>
@@ -41784,7 +41784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>3</v>
       </c>
@@ -41798,7 +41798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>2</v>
       </c>
@@ -41812,7 +41812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>2</v>
       </c>
@@ -41826,7 +41826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>1</v>
       </c>
@@ -41840,7 +41840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>2</v>
       </c>
@@ -41854,7 +41854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>3</v>
       </c>
@@ -41868,7 +41868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>3</v>
       </c>
@@ -41882,7 +41882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>2</v>
       </c>
@@ -41896,7 +41896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>1</v>
       </c>
@@ -41910,7 +41910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>2</v>
       </c>
@@ -41924,7 +41924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>2</v>
       </c>
@@ -41938,7 +41938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>1</v>
       </c>
@@ -41952,7 +41952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>2</v>
       </c>
@@ -41966,7 +41966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>2</v>
       </c>
@@ -41980,7 +41980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>2</v>
       </c>
@@ -41994,7 +41994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>2</v>
       </c>
@@ -42008,7 +42008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>2</v>
       </c>
@@ -42022,7 +42022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>2</v>
       </c>
@@ -42036,7 +42036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>2</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>2</v>
       </c>
@@ -42064,7 +42064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>2</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>2</v>
       </c>
@@ -42092,7 +42092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>2</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>1</v>
       </c>
@@ -42120,7 +42120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>2</v>
       </c>
@@ -42134,7 +42134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>2</v>
       </c>
@@ -42148,7 +42148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>2</v>
       </c>
@@ -42162,7 +42162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>3</v>
       </c>
@@ -42176,7 +42176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>1</v>
       </c>
@@ -42190,7 +42190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>2</v>
       </c>
@@ -42204,7 +42204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>2</v>
       </c>
@@ -42218,7 +42218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>2</v>
       </c>
@@ -42232,7 +42232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>2</v>
       </c>
@@ -42246,7 +42246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>2</v>
       </c>
@@ -42260,7 +42260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>2</v>
       </c>
@@ -42274,7 +42274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>2</v>
       </c>
@@ -42288,7 +42288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>2</v>
       </c>
@@ -42302,7 +42302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>3</v>
       </c>
@@ -42316,7 +42316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>2</v>
       </c>
@@ -42330,7 +42330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>2</v>
       </c>
@@ -42344,7 +42344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>2</v>
       </c>
@@ -42358,7 +42358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>2</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>2</v>
       </c>
@@ -42386,7 +42386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>2</v>
       </c>
@@ -42400,7 +42400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>2</v>
       </c>
@@ -42414,7 +42414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>2</v>
       </c>
@@ -42428,7 +42428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>2</v>
       </c>
@@ -42442,7 +42442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>2</v>
       </c>
@@ -42456,7 +42456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>1</v>
       </c>
@@ -42470,7 +42470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>3</v>
       </c>
@@ -42484,7 +42484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>2</v>
       </c>
@@ -42498,7 +42498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>2</v>
       </c>
@@ -42512,7 +42512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>2</v>
       </c>
@@ -42526,7 +42526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>2</v>
       </c>
@@ -42540,7 +42540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>4</v>
       </c>
@@ -42554,7 +42554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>2</v>
       </c>
@@ -42568,7 +42568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>1</v>
       </c>
@@ -42582,7 +42582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>2</v>
       </c>
@@ -42596,7 +42596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>4</v>
       </c>
@@ -42610,7 +42610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>2</v>
       </c>
@@ -42624,7 +42624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>2</v>
       </c>
@@ -42638,7 +42638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>2</v>
       </c>
@@ -42652,7 +42652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>2</v>
       </c>
@@ -42666,7 +42666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>2</v>
       </c>
@@ -42680,7 +42680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>2</v>
       </c>
@@ -42694,7 +42694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>1</v>
       </c>
@@ -42708,7 +42708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>2</v>
       </c>
@@ -42722,7 +42722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>2</v>
       </c>
@@ -42736,7 +42736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>2</v>
       </c>
@@ -42750,7 +42750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>2</v>
       </c>
@@ -42764,7 +42764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>2</v>
       </c>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>2</v>
       </c>
@@ -42780,7 +42780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>2</v>
       </c>
@@ -42788,7 +42788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>1</v>
       </c>
@@ -42796,7 +42796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>3</v>
       </c>
@@ -42804,7 +42804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>2</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>2</v>
       </c>
@@ -42820,7 +42820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>2</v>
       </c>
@@ -42828,7 +42828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>2</v>
       </c>
@@ -42836,7 +42836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>2</v>
       </c>
@@ -42844,7 +42844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>1</v>
       </c>
@@ -42852,7 +42852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>2</v>
       </c>
@@ -42860,7 +42860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>2</v>
       </c>
@@ -42868,7 +42868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>2</v>
       </c>
@@ -42876,7 +42876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>1</v>
       </c>
@@ -42884,7 +42884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>2</v>
       </c>
@@ -42892,7 +42892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>2</v>
       </c>
@@ -42900,7 +42900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>2</v>
       </c>
@@ -42908,7 +42908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>3</v>
       </c>
@@ -42916,7 +42916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>2</v>
       </c>
@@ -42924,7 +42924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>2</v>
       </c>
@@ -42932,7 +42932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>2</v>
       </c>
@@ -42940,7 +42940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>2</v>
       </c>
@@ -42948,7 +42948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>2</v>
       </c>
@@ -42956,7 +42956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>2</v>
       </c>
@@ -42964,7 +42964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>1</v>
       </c>
@@ -42972,7 +42972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>2</v>
       </c>
@@ -42980,7 +42980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>2</v>
       </c>
@@ -42988,7 +42988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>4</v>
       </c>
@@ -42996,7 +42996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>1</v>
       </c>
@@ -43004,7 +43004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>2</v>
       </c>
@@ -43012,7 +43012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>2</v>
       </c>
@@ -43037,16 +43037,16 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.265625" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>2</v>
       </c>
@@ -43054,17 +43054,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2.1</v>
       </c>
@@ -43072,7 +43072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -43080,7 +43080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -43097,7 +43097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -43114,7 +43114,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -43131,7 +43131,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -43148,7 +43148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -43165,7 +43165,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -43182,7 +43182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -43199,7 +43199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -43216,7 +43216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -43233,7 +43233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -43250,7 +43250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -43267,7 +43267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -43284,7 +43284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -43301,7 +43301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -43318,7 +43318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -43335,7 +43335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -43352,7 +43352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -43369,7 +43369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -43386,7 +43386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -43403,17 +43403,17 @@
         <v>4.807692307692308E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -43421,7 +43421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
@@ -43438,7 +43438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>72</v>
       </c>
@@ -43455,7 +43455,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>73</v>
       </c>
@@ -43472,7 +43472,7 @@
         <v>3.4090909090909088E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -43489,12 +43489,12 @@
         <v>4.807692307692308E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>77</v>
       </c>
